--- a/ApolloQA/Data/RatingManual/GA/VA00066.VehicleAgeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00066.VehicleAgeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.VehicleAgeFactors" sheetId="1" r:id="Rf67ddbb3b8854883"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.VehicleAgeFactors" sheetId="1" r:id="R300c00dbb4a54306"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,27 +12,234 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
+        <x:v>ClassCode</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Lower Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>Vehicle Age Lower Bound</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Vehicle Age Upper Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Vehicle Age Factor</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>Class Code_Fleet Size_Vehicle Age Factor</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9154</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9154</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9154</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9154</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9154</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9154</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9154</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9154</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9154</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>1</x:v>
       </x:c>
@@ -40,10 +247,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9648</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>2</x:v>
       </x:c>
@@ -51,10 +267,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9338</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>3</x:v>
       </x:c>
@@ -62,10 +287,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9064</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>4</x:v>
       </x:c>
@@ -73,10 +307,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8822</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>5</x:v>
       </x:c>
@@ -84,10 +327,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8607</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>6</x:v>
       </x:c>
@@ -95,10 +347,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8414</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>7</x:v>
       </x:c>
@@ -106,10 +367,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8242</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>8</x:v>
       </x:c>
@@ -117,10 +387,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8086</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>9</x:v>
       </x:c>
@@ -128,32 +407,59 @@
         <x:v>9</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7945</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.7815</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.7696</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>12</x:v>
       </x:c>
@@ -161,10 +467,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7585</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>13</x:v>
       </x:c>
@@ -172,10 +487,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7481</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>14</x:v>
       </x:c>
@@ -183,10 +507,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7382</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>15</x:v>
       </x:c>
@@ -194,10 +527,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7287</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>16</x:v>
       </x:c>
@@ -205,10 +547,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7194</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>17</x:v>
       </x:c>
@@ -216,10 +567,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7102</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>18</x:v>
       </x:c>
@@ -227,10 +587,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7011</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>19</x:v>
       </x:c>
@@ -238,10 +607,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6920</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>20</x:v>
       </x:c>
@@ -249,10 +627,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6827</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>21</x:v>
       </x:c>
@@ -260,10 +647,19 @@
         <x:v>21</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6731</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>22</x:v>
       </x:c>
@@ -271,10 +667,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6633</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>23</x:v>
       </x:c>
@@ -282,10 +687,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6532</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>24</x:v>
       </x:c>
@@ -293,10 +707,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6427</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>25</x:v>
       </x:c>
@@ -304,10 +727,19 @@
         <x:v>25</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6318</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>26</x:v>
       </x:c>
@@ -315,10 +747,19 @@
         <x:v>26</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6205</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>27</x:v>
       </x:c>
@@ -326,10 +767,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6087</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>28</x:v>
       </x:c>
@@ -337,10 +787,19 @@
         <x:v>28</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>29</x:v>
       </x:c>
@@ -348,10 +807,19 @@
         <x:v>29</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>30</x:v>
       </x:c>
@@ -359,10 +827,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>31</x:v>
       </x:c>
@@ -370,7 +847,287 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6000</x:v>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9816</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9370</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8945</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9561</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0196</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0848</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1514</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2113</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2715</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3318</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3919</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4514</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5101</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5678</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
